--- a/natmiOut/OldD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.424014147503848</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H2">
-        <v>0.424014147503848</v>
+        <v>3.134744</v>
       </c>
       <c r="I2">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J2">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.77098124444703</v>
+        <v>25.33077566666667</v>
       </c>
       <c r="N2">
-        <v>6.77098124444703</v>
+        <v>75.992327</v>
       </c>
       <c r="O2">
-        <v>0.9697530295885368</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="P2">
-        <v>0.9697530295885368</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="Q2">
-        <v>2.870991840128751</v>
+        <v>26.46849901214311</v>
       </c>
       <c r="R2">
-        <v>2.870991840128751</v>
+        <v>238.216491109288</v>
       </c>
       <c r="S2">
-        <v>0.002668645162578898</v>
+        <v>0.006590344896233484</v>
       </c>
       <c r="T2">
-        <v>0.002668645162578898</v>
+        <v>0.006590344896233483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.424014147503848</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H3">
-        <v>0.424014147503848</v>
+        <v>3.134744</v>
       </c>
       <c r="I3">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J3">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.211189512286709</v>
+        <v>0.05766533333333334</v>
       </c>
       <c r="N3">
-        <v>0.211189512286709</v>
+        <v>0.172996</v>
       </c>
       <c r="O3">
-        <v>0.0302469704114632</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="P3">
-        <v>0.0302469704114632</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="Q3">
-        <v>0.08954734101400236</v>
+        <v>0.06025535255822222</v>
       </c>
       <c r="R3">
-        <v>0.08954734101400236</v>
+        <v>0.542298173024</v>
       </c>
       <c r="S3">
-        <v>8.323607022446416E-05</v>
+        <v>1.500287398316948E-05</v>
       </c>
       <c r="T3">
-        <v>8.323607022446416E-05</v>
+        <v>1.500287398316948E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.173273307132</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H4">
-        <v>126.173273307132</v>
+        <v>3.134744</v>
       </c>
       <c r="I4">
-        <v>0.8188732968918565</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J4">
-        <v>0.8188732968918565</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.77098124444703</v>
+        <v>0.244046</v>
       </c>
       <c r="N4">
-        <v>6.77098124444703</v>
+        <v>0.732138</v>
       </c>
       <c r="O4">
-        <v>0.9697530295885368</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="P4">
-        <v>0.9697530295885368</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="Q4">
-        <v>854.3168671130799</v>
+        <v>0.2550072447413332</v>
       </c>
       <c r="R4">
-        <v>854.3168671130799</v>
+        <v>2.295065202671999</v>
       </c>
       <c r="S4">
-        <v>0.7941048605100313</v>
+        <v>6.349380420524023E-05</v>
       </c>
       <c r="T4">
-        <v>0.7941048605100313</v>
+        <v>6.349380420524021E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.173273307132</v>
+        <v>127.867017</v>
       </c>
       <c r="H5">
-        <v>126.173273307132</v>
+        <v>383.601051</v>
       </c>
       <c r="I5">
-        <v>0.8188732968918565</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J5">
-        <v>0.8188732968918565</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.211189512286709</v>
+        <v>25.33077566666667</v>
       </c>
       <c r="N5">
-        <v>0.211189512286709</v>
+        <v>75.992327</v>
       </c>
       <c r="O5">
-        <v>0.0302469704114632</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="P5">
-        <v>0.0302469704114632</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="Q5">
-        <v>26.64647205335085</v>
+        <v>3238.970722792853</v>
       </c>
       <c r="R5">
-        <v>26.64647205335085</v>
+        <v>29150.73650513568</v>
       </c>
       <c r="S5">
-        <v>0.0247684363818253</v>
+        <v>0.806465608881507</v>
       </c>
       <c r="T5">
-        <v>0.0247684363818253</v>
+        <v>0.8064656088815069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.4842704445405</v>
+        <v>127.867017</v>
       </c>
       <c r="H6">
-        <v>27.4842704445405</v>
+        <v>383.601051</v>
       </c>
       <c r="I6">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J6">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.77098124444703</v>
+        <v>0.05766533333333334</v>
       </c>
       <c r="N6">
-        <v>6.77098124444703</v>
+        <v>0.172996</v>
       </c>
       <c r="O6">
-        <v>0.9697530295885368</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="P6">
-        <v>0.9697530295885368</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="Q6">
-        <v>186.0954796972935</v>
+        <v>7.373494157644</v>
       </c>
       <c r="R6">
-        <v>186.0954796972935</v>
+        <v>66.361447418796</v>
       </c>
       <c r="S6">
-        <v>0.1729795239159268</v>
+        <v>0.001835913308380005</v>
       </c>
       <c r="T6">
-        <v>0.1729795239159268</v>
+        <v>0.001835913308380005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.4842704445405</v>
+        <v>127.867017</v>
       </c>
       <c r="H7">
-        <v>27.4842704445405</v>
+        <v>383.601051</v>
       </c>
       <c r="I7">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J7">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.211189512286709</v>
+        <v>0.244046</v>
       </c>
       <c r="N7">
-        <v>0.211189512286709</v>
+        <v>0.732138</v>
       </c>
       <c r="O7">
-        <v>0.0302469704114632</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="P7">
-        <v>0.0302469704114632</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="Q7">
-        <v>5.804389670738519</v>
+        <v>31.20543403078199</v>
       </c>
       <c r="R7">
-        <v>5.804389670738519</v>
+        <v>280.848906277038</v>
       </c>
       <c r="S7">
-        <v>0.005395297959413434</v>
+        <v>0.00776978599372656</v>
       </c>
       <c r="T7">
-        <v>0.005395297959413434</v>
+        <v>0.007769785993726559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H8">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J8">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.33077566666667</v>
+      </c>
+      <c r="N8">
+        <v>75.992327</v>
+      </c>
+      <c r="O8">
+        <v>0.988229338287255</v>
+      </c>
+      <c r="P8">
+        <v>0.988229338287255</v>
+      </c>
+      <c r="Q8">
+        <v>703.5408052003095</v>
+      </c>
+      <c r="R8">
+        <v>6331.867246802784</v>
+      </c>
+      <c r="S8">
+        <v>0.1751733845095147</v>
+      </c>
+      <c r="T8">
+        <v>0.1751733845095147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H9">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J9">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05766533333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.172996</v>
+      </c>
+      <c r="O9">
+        <v>0.002249697164903793</v>
+      </c>
+      <c r="P9">
+        <v>0.002249697164903793</v>
+      </c>
+      <c r="Q9">
+        <v>1.601605713908889</v>
+      </c>
+      <c r="R9">
+        <v>14.41445142518</v>
+      </c>
+      <c r="S9">
+        <v>0.0003987809825406191</v>
+      </c>
+      <c r="T9">
+        <v>0.0003987809825406189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H10">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J10">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.244046</v>
+      </c>
+      <c r="N10">
+        <v>0.732138</v>
+      </c>
+      <c r="O10">
+        <v>0.009520964547841182</v>
+      </c>
+      <c r="P10">
+        <v>0.009520964547841182</v>
+      </c>
+      <c r="Q10">
+        <v>6.778170617643332</v>
+      </c>
+      <c r="R10">
+        <v>61.00353555878999</v>
+      </c>
+      <c r="S10">
+        <v>0.001687684749909383</v>
+      </c>
+      <c r="T10">
+        <v>0.001687684749909383</v>
       </c>
     </row>
   </sheetData>
